--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="D10" t="n">
         <v>594</v>
       </c>
       <c r="E10" t="n">
-        <v>9548220</v>
+        <v>9540304</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4939,13 +4939,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>58699</v>
+        <v>58696</v>
       </c>
       <c r="D89" t="n">
         <v>11362</v>
       </c>
       <c r="E89" t="n">
-        <v>233909555</v>
+        <v>233875901</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -5041,13 +5041,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9530</v>
+        <v>9529</v>
       </c>
       <c r="D91" t="n">
         <v>1567</v>
       </c>
       <c r="E91" t="n">
-        <v>84321507</v>
+        <v>84295110</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -13354,13 +13354,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>6871</v>
+        <v>6870</v>
       </c>
       <c r="D254" t="n">
         <v>1049</v>
       </c>
       <c r="E254" t="n">
-        <v>42106119</v>
+        <v>42105519</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -14170,13 +14170,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D270" t="n">
         <v>148</v>
       </c>
       <c r="E270" t="n">
-        <v>4026581</v>
+        <v>4021205</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -14782,13 +14782,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>33746</v>
+        <v>33745</v>
       </c>
       <c r="D282" t="n">
         <v>6781</v>
       </c>
       <c r="E282" t="n">
-        <v>130814310</v>
+        <v>130807462</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D302" t="n">
         <v>113</v>
       </c>
       <c r="E302" t="n">
-        <v>29186540</v>
+        <v>29145340</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14102</v>
+        <v>14101</v>
       </c>
       <c r="D347" t="n">
         <v>2811</v>
       </c>
       <c r="E347" t="n">
-        <v>35461428</v>
+        <v>35459928</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="D348" t="n">
         <v>1053</v>
       </c>
       <c r="E348" t="n">
-        <v>19410015</v>
+        <v>19389984</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -19984,13 +19984,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>15981</v>
+        <v>15980</v>
       </c>
       <c r="D384" t="n">
         <v>3288</v>
       </c>
       <c r="E384" t="n">
-        <v>58138608</v>
+        <v>58128608</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -20545,13 +20545,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="D395" t="n">
         <v>753</v>
       </c>
       <c r="E395" t="n">
-        <v>30906282</v>
+        <v>30901028</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -21310,13 +21310,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>11161</v>
+        <v>11160</v>
       </c>
       <c r="D410" t="n">
         <v>2278</v>
       </c>
       <c r="E410" t="n">
-        <v>61051179</v>
+        <v>61036499</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -21361,13 +21361,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4114</v>
+        <v>4112</v>
       </c>
       <c r="D411" t="n">
         <v>796</v>
       </c>
       <c r="E411" t="n">
-        <v>32529259</v>
+        <v>32492750</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>60961</v>
+        <v>60959</v>
       </c>
       <c r="D433" t="n">
         <v>9648</v>
       </c>
       <c r="E433" t="n">
-        <v>219994230</v>
+        <v>219974230</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163285</v>
+        <v>163279</v>
       </c>
       <c r="D434" t="n">
         <v>25450</v>
       </c>
       <c r="E434" t="n">
-        <v>707749844</v>
+        <v>707706927</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94367</v>
+        <v>94365</v>
       </c>
       <c r="D435" t="n">
         <v>12848</v>
       </c>
       <c r="E435" t="n">
-        <v>649058537</v>
+        <v>649009189</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50499</v>
+        <v>50496</v>
       </c>
       <c r="D436" t="n">
         <v>6173</v>
       </c>
       <c r="E436" t="n">
-        <v>538139705</v>
+        <v>537966077</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10172</v>
+        <v>10171</v>
       </c>
       <c r="D438" t="n">
         <v>1382</v>
       </c>
       <c r="E438" t="n">
-        <v>473848162</v>
+        <v>473846662</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53122</v>
+        <v>53120</v>
       </c>
       <c r="D446" t="n">
         <v>8882</v>
       </c>
       <c r="E446" t="n">
-        <v>117501775</v>
+        <v>117495775</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -24217,13 +24217,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>13525</v>
+        <v>13524</v>
       </c>
       <c r="D467" t="n">
         <v>2243</v>
       </c>
       <c r="E467" t="n">
-        <v>41113249</v>
+        <v>41111233</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D472" t="n">
         <v>187</v>
       </c>
       <c r="E472" t="n">
-        <v>54133576</v>
+        <v>54072611</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -25339,13 +25339,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>27861</v>
+        <v>27860</v>
       </c>
       <c r="D489" t="n">
         <v>5750</v>
       </c>
       <c r="E489" t="n">
-        <v>106573811</v>
+        <v>106561670</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -25849,13 +25849,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>18119</v>
+        <v>18118</v>
       </c>
       <c r="D499" t="n">
         <v>4979</v>
       </c>
       <c r="E499" t="n">
-        <v>40714435</v>
+        <v>40712935</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="D507" t="n">
         <v>699</v>
       </c>
       <c r="E507" t="n">
-        <v>8916220</v>
+        <v>8915019</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26308,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>11471</v>
+        <v>11468</v>
       </c>
       <c r="D508" t="n">
         <v>2248</v>
       </c>
       <c r="E508" t="n">
-        <v>32308090</v>
+        <v>32283158</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4426</v>
+        <v>4424</v>
       </c>
       <c r="D509" t="n">
         <v>967</v>
       </c>
       <c r="E509" t="n">
-        <v>19536136</v>
+        <v>19530976</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D511" t="n">
         <v>160</v>
       </c>
       <c r="E511" t="n">
-        <v>10462697</v>
+        <v>10421491</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26665,13 +26665,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>8329</v>
+        <v>8324</v>
       </c>
       <c r="D515" t="n">
         <v>1493</v>
       </c>
       <c r="E515" t="n">
-        <v>12560350</v>
+        <v>12555568</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -28756,13 +28756,13 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>24900</v>
+        <v>24899</v>
       </c>
       <c r="D556" t="n">
         <v>4894</v>
       </c>
       <c r="E556" t="n">
-        <v>101326568</v>
+        <v>101325130</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -39415,13 +39415,13 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>14887</v>
+        <v>14886</v>
       </c>
       <c r="D765" t="n">
         <v>2736</v>
       </c>
       <c r="E765" t="n">
-        <v>89232661</v>
+        <v>89231161</v>
       </c>
       <c r="F765" t="inlineStr">
         <is>
@@ -42271,13 +42271,13 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>18384</v>
+        <v>18383</v>
       </c>
       <c r="D821" t="n">
         <v>3537</v>
       </c>
       <c r="E821" t="n">
-        <v>35868541</v>
+        <v>35866055</v>
       </c>
       <c r="F821" t="inlineStr">
         <is>
@@ -42373,13 +42373,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>76795</v>
+        <v>76794</v>
       </c>
       <c r="D823" t="n">
         <v>14068</v>
       </c>
       <c r="E823" t="n">
-        <v>291932721</v>
+        <v>291930929</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
@@ -42424,13 +42424,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>28672</v>
+        <v>28671</v>
       </c>
       <c r="D824" t="n">
         <v>5058</v>
       </c>
       <c r="E824" t="n">
-        <v>166041144</v>
+        <v>166039146</v>
       </c>
       <c r="F824" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>8280</v>
+        <v>8279</v>
       </c>
       <c r="D854" t="n">
         <v>1569</v>
       </c>
       <c r="E854" t="n">
-        <v>47082414</v>
+        <v>47072414</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-02-28/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="D10" t="n">
         <v>594</v>
       </c>
       <c r="E10" t="n">
-        <v>9540304</v>
+        <v>9548220</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4939,13 +4939,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>58696</v>
+        <v>58699</v>
       </c>
       <c r="D89" t="n">
         <v>11362</v>
       </c>
       <c r="E89" t="n">
-        <v>233875901</v>
+        <v>233909555</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -5041,13 +5041,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9529</v>
+        <v>9530</v>
       </c>
       <c r="D91" t="n">
         <v>1567</v>
       </c>
       <c r="E91" t="n">
-        <v>84295110</v>
+        <v>84321507</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -13354,13 +13354,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>6870</v>
+        <v>6871</v>
       </c>
       <c r="D254" t="n">
         <v>1049</v>
       </c>
       <c r="E254" t="n">
-        <v>42105519</v>
+        <v>42106119</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -14170,13 +14170,13 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D270" t="n">
         <v>148</v>
       </c>
       <c r="E270" t="n">
-        <v>4021205</v>
+        <v>4026581</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -14782,13 +14782,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>33745</v>
+        <v>33746</v>
       </c>
       <c r="D282" t="n">
         <v>6781</v>
       </c>
       <c r="E282" t="n">
-        <v>130807462</v>
+        <v>130814310</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D302" t="n">
         <v>113</v>
       </c>
       <c r="E302" t="n">
-        <v>29145340</v>
+        <v>29186540</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14101</v>
+        <v>14102</v>
       </c>
       <c r="D347" t="n">
         <v>2811</v>
       </c>
       <c r="E347" t="n">
-        <v>35459928</v>
+        <v>35461428</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5055</v>
+        <v>5056</v>
       </c>
       <c r="D348" t="n">
         <v>1053</v>
       </c>
       <c r="E348" t="n">
-        <v>19389984</v>
+        <v>19410015</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -19984,13 +19984,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>15980</v>
+        <v>15981</v>
       </c>
       <c r="D384" t="n">
         <v>3288</v>
       </c>
       <c r="E384" t="n">
-        <v>58128608</v>
+        <v>58138608</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -20545,13 +20545,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="D395" t="n">
         <v>753</v>
       </c>
       <c r="E395" t="n">
-        <v>30901028</v>
+        <v>30906282</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -21310,13 +21310,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>11160</v>
+        <v>11161</v>
       </c>
       <c r="D410" t="n">
         <v>2278</v>
       </c>
       <c r="E410" t="n">
-        <v>61036499</v>
+        <v>61051179</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -21361,13 +21361,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4112</v>
+        <v>4114</v>
       </c>
       <c r="D411" t="n">
         <v>796</v>
       </c>
       <c r="E411" t="n">
-        <v>32492750</v>
+        <v>32529259</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>60959</v>
+        <v>60961</v>
       </c>
       <c r="D433" t="n">
         <v>9648</v>
       </c>
       <c r="E433" t="n">
-        <v>219974230</v>
+        <v>219994230</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163279</v>
+        <v>163285</v>
       </c>
       <c r="D434" t="n">
         <v>25450</v>
       </c>
       <c r="E434" t="n">
-        <v>707706927</v>
+        <v>707749844</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94365</v>
+        <v>94367</v>
       </c>
       <c r="D435" t="n">
         <v>12848</v>
       </c>
       <c r="E435" t="n">
-        <v>649009189</v>
+        <v>649058537</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50496</v>
+        <v>50499</v>
       </c>
       <c r="D436" t="n">
         <v>6173</v>
       </c>
       <c r="E436" t="n">
-        <v>537966077</v>
+        <v>538139705</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10171</v>
+        <v>10172</v>
       </c>
       <c r="D438" t="n">
         <v>1382</v>
       </c>
       <c r="E438" t="n">
-        <v>473846662</v>
+        <v>473848162</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53120</v>
+        <v>53122</v>
       </c>
       <c r="D446" t="n">
         <v>8882</v>
       </c>
       <c r="E446" t="n">
-        <v>117495775</v>
+        <v>117501775</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -24217,13 +24217,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>13524</v>
+        <v>13525</v>
       </c>
       <c r="D467" t="n">
         <v>2243</v>
       </c>
       <c r="E467" t="n">
-        <v>41111233</v>
+        <v>41113249</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D472" t="n">
         <v>187</v>
       </c>
       <c r="E472" t="n">
-        <v>54072611</v>
+        <v>54133576</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -25339,13 +25339,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>27860</v>
+        <v>27861</v>
       </c>
       <c r="D489" t="n">
         <v>5750</v>
       </c>
       <c r="E489" t="n">
-        <v>106561670</v>
+        <v>106573811</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -25849,13 +25849,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>18118</v>
+        <v>18119</v>
       </c>
       <c r="D499" t="n">
         <v>4979</v>
       </c>
       <c r="E499" t="n">
-        <v>40712935</v>
+        <v>40714435</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="D507" t="n">
         <v>699</v>
       </c>
       <c r="E507" t="n">
-        <v>8915019</v>
+        <v>8916220</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26308,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>11468</v>
+        <v>11471</v>
       </c>
       <c r="D508" t="n">
         <v>2248</v>
       </c>
       <c r="E508" t="n">
-        <v>32283158</v>
+        <v>32308090</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4424</v>
+        <v>4426</v>
       </c>
       <c r="D509" t="n">
         <v>967</v>
       </c>
       <c r="E509" t="n">
-        <v>19530976</v>
+        <v>19536136</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D511" t="n">
         <v>160</v>
       </c>
       <c r="E511" t="n">
-        <v>10421491</v>
+        <v>10462697</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26665,13 +26665,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>8324</v>
+        <v>8329</v>
       </c>
       <c r="D515" t="n">
         <v>1493</v>
       </c>
       <c r="E515" t="n">
-        <v>12555568</v>
+        <v>12560350</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -28756,13 +28756,13 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>24899</v>
+        <v>24900</v>
       </c>
       <c r="D556" t="n">
         <v>4894</v>
       </c>
       <c r="E556" t="n">
-        <v>101325130</v>
+        <v>101326568</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -39415,13 +39415,13 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>14886</v>
+        <v>14887</v>
       </c>
       <c r="D765" t="n">
         <v>2736</v>
       </c>
       <c r="E765" t="n">
-        <v>89231161</v>
+        <v>89232661</v>
       </c>
       <c r="F765" t="inlineStr">
         <is>
@@ -42271,13 +42271,13 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>18383</v>
+        <v>18384</v>
       </c>
       <c r="D821" t="n">
         <v>3537</v>
       </c>
       <c r="E821" t="n">
-        <v>35866055</v>
+        <v>35868541</v>
       </c>
       <c r="F821" t="inlineStr">
         <is>
@@ -42373,13 +42373,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>76794</v>
+        <v>76795</v>
       </c>
       <c r="D823" t="n">
         <v>14068</v>
       </c>
       <c r="E823" t="n">
-        <v>291930929</v>
+        <v>291932721</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
@@ -42424,13 +42424,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>28671</v>
+        <v>28672</v>
       </c>
       <c r="D824" t="n">
         <v>5058</v>
       </c>
       <c r="E824" t="n">
-        <v>166039146</v>
+        <v>166041144</v>
       </c>
       <c r="F824" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>8279</v>
+        <v>8280</v>
       </c>
       <c r="D854" t="n">
         <v>1569</v>
       </c>
       <c r="E854" t="n">
-        <v>47072414</v>
+        <v>47082414</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
